--- a/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,34 +523,34 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1871933284077594</v>
+        <v>-0.4391947799404573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6435510197032246</v>
+        <v>0.280176436088491</v>
       </c>
       <c r="G2" t="n">
-        <v>1.405352928587295</v>
+        <v>0.1427876977401354</v>
       </c>
       <c r="H2" t="n">
-        <v>0.400224350245707</v>
+        <v>0.4127792742118284</v>
       </c>
       <c r="I2" t="n">
-        <v>1.500619528091478</v>
+        <v>0.2052765787541329</v>
       </c>
       <c r="J2" t="n">
-        <v>1.208018199733981</v>
+        <v>1.253156790920255</v>
       </c>
       <c r="K2" t="n">
-        <v>1.927360641721842</v>
+        <v>0.2278851150392112</v>
       </c>
       <c r="L2" t="n">
-        <v>1.329544370917706</v>
+        <v>0.2459270742492109</v>
       </c>
       <c r="M2" t="n">
-        <v>1.567016812310027</v>
+        <v>0.3068672334673084</v>
       </c>
       <c r="N2" t="n">
-        <v>1.382851576616769</v>
+        <v>0.2544328657890937</v>
       </c>
     </row>
     <row r="3">
@@ -571,34 +571,34 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.702335400483121</v>
+        <v>-0.242712789843943</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3564547265487462</v>
+        <v>0.2607050659720658</v>
       </c>
       <c r="G3" t="n">
-        <v>1.221782268137948</v>
+        <v>0.1536808083656432</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7793319904649427</v>
+        <v>0.4089169444412364</v>
       </c>
       <c r="I3" t="n">
-        <v>1.381470890610097</v>
+        <v>0.2073276590729151</v>
       </c>
       <c r="J3" t="n">
-        <v>1.010420062794354</v>
+        <v>1.269323276420944</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2137675238395462</v>
+        <v>0.2141025557800378</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3434217885048705</v>
+        <v>0.161486837927117</v>
       </c>
       <c r="M3" t="n">
-        <v>1.467735954959121</v>
+        <v>0.2541949430787785</v>
       </c>
       <c r="N3" t="n">
-        <v>1.552278592054542</v>
+        <v>0.291707473161857</v>
       </c>
     </row>
     <row r="4">
@@ -619,34 +619,34 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6682738467366206</v>
+        <v>1.253050462133608</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3388045843500642</v>
+        <v>0.9625195229041578</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4356834413141638</v>
+        <v>0.6853251069471707</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3956489306928614</v>
+        <v>1.077167118009555</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6196120305860288</v>
+        <v>1.002848377288229</v>
       </c>
       <c r="J4" t="n">
-        <v>1.083692608393563</v>
+        <v>1.406145746643962</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4836032102749406</v>
+        <v>1.233559888613904</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9928564601806407</v>
+        <v>1.181711917024253</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3332726571633392</v>
+        <v>0.9544738456940576</v>
       </c>
       <c r="N4" t="n">
-        <v>1.139317222032973</v>
+        <v>1.065505347579154</v>
       </c>
     </row>
     <row r="5">
@@ -667,34 +667,34 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.9299716851858525</v>
+        <v>-1.43891302501105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1060555738798404</v>
+        <v>0.7290236225855294</v>
       </c>
       <c r="G5" t="n">
-        <v>0.621418703013853</v>
+        <v>2.225404221833818</v>
       </c>
       <c r="H5" t="n">
-        <v>0.466274410854165</v>
+        <v>0.6688286797701772</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2712789391956478</v>
+        <v>2.434508968522655</v>
       </c>
       <c r="J5" t="n">
-        <v>1.061940671559081</v>
+        <v>1.162507405139005</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6219857569024985</v>
+        <v>0.7094591483191943</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2875786031082312</v>
+        <v>0.8873903387009525</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7714809073792299</v>
+        <v>1.824927417794814</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2402157589387164</v>
+        <v>2.140249381841854</v>
       </c>
     </row>
     <row r="6">
@@ -715,34 +715,34 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8982988624961146</v>
+        <v>-1.531871987019629</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06971531556390434</v>
+        <v>0.7997529706806685</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8097177071593051</v>
+        <v>0.2714281162697881</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4691385764316047</v>
+        <v>0.6720338977700961</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2109743028019812</v>
+        <v>0.15161754090967</v>
       </c>
       <c r="J6" t="n">
-        <v>1.057670873941617</v>
+        <v>1.157004304263798</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2654317445511402</v>
+        <v>2.262738023745956</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6003726168242929</v>
+        <v>2.502068556685275</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8572634246951022</v>
+        <v>0.3433813703689279</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4654770715384229</v>
+        <v>0.4895961622859197</v>
       </c>
     </row>
     <row r="7">
@@ -763,34 +763,34 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.861367486950452</v>
+        <v>-1.202172366945219</v>
       </c>
       <c r="F7" t="n">
-        <v>0.825490894905931</v>
+        <v>0.5781302272077913</v>
       </c>
       <c r="G7" t="n">
-        <v>1.595169121022683</v>
+        <v>0.3293385761621772</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8939028290394717</v>
+        <v>0.606568683122727</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5462451916678027</v>
+        <v>0.6196424600613908</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9629093008993526</v>
+        <v>1.185519225601247</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7028149148476075</v>
+        <v>0.3632176531356495</v>
       </c>
       <c r="L7" t="n">
-        <v>1.298077755070906</v>
+        <v>0.3022648373989401</v>
       </c>
       <c r="M7" t="n">
-        <v>1.800825790294419</v>
+        <v>0.3850827629145197</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2688312726735941</v>
+        <v>0.2470106539886805</v>
       </c>
     </row>
     <row r="8">
@@ -811,34 +811,34 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.009686910611284</v>
+        <v>-0.7859611405635978</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7391227962681665</v>
+        <v>0.3712384091483952</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3092879844724303</v>
+        <v>0.2371940867112247</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9437437318128993</v>
+        <v>0.4417492303824937</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2199246535057888</v>
+        <v>0.2576599071762581</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9500399769427612</v>
+        <v>1.221417944187562</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5865845542165592</v>
+        <v>0.4618244738442552</v>
       </c>
       <c r="L8" t="n">
-        <v>1.147386288487255</v>
+        <v>0.404538414711585</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3632784735524616</v>
+        <v>0.3086203908153451</v>
       </c>
       <c r="N8" t="n">
-        <v>0.224497742697541</v>
+        <v>0.2977671174255628</v>
       </c>
     </row>
     <row r="9">
@@ -859,34 +859,34 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5086736248511967</v>
+        <v>-1.079279607828528</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6095129543808621</v>
+        <v>0.5051139283182715</v>
       </c>
       <c r="G9" t="n">
-        <v>1.231596960465284</v>
+        <v>0.8411596141356122</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4060317916910545</v>
+        <v>0.5176588185280092</v>
       </c>
       <c r="I9" t="n">
-        <v>1.08295162643286</v>
+        <v>0.4460087325241173</v>
       </c>
       <c r="J9" t="n">
-        <v>1.124396484363874</v>
+        <v>1.195820114307767</v>
       </c>
       <c r="K9" t="n">
-        <v>0.755813477748167</v>
+        <v>0.2572519369261406</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3463758014226903</v>
+        <v>0.3178307188154236</v>
       </c>
       <c r="M9" t="n">
-        <v>1.495011625570948</v>
+        <v>0.7445057657887683</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5793670416871074</v>
+        <v>0.2334793241447689</v>
       </c>
     </row>
     <row r="10">
@@ -907,34 +907,34 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1248489796216299</v>
+        <v>-2.728073429524258</v>
       </c>
       <c r="F10" t="n">
-        <v>1.144980780110513</v>
+        <v>1.879263552013414</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3597317723921675</v>
+        <v>1.796522250645631</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4935608094505639</v>
+        <v>1.463981747179787</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2858258093895247</v>
+        <v>1.136849246646469</v>
       </c>
       <c r="J10" t="n">
-        <v>1.092090401754291</v>
+        <v>1.123522395360715</v>
       </c>
       <c r="K10" t="n">
-        <v>1.439068791405507</v>
+        <v>1.303708147458225</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8528038014558621</v>
+        <v>1.463847511456118</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1681135209630868</v>
+        <v>1.758918002561617</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5610847753959305</v>
+        <v>0.9907769132688189</v>
       </c>
     </row>
     <row r="11">
@@ -955,41 +955,39 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.844675687069411</v>
+        <v>-2.127270602857722</v>
       </c>
       <c r="F11" t="n">
-        <v>2.569727506572614</v>
+        <v>1.29883550662934</v>
       </c>
       <c r="G11" t="n">
-        <v>0.511640526192328</v>
+        <v>0.3955541404947727</v>
       </c>
       <c r="H11" t="n">
-        <v>1.496159292579053</v>
+        <v>1.005200997856422</v>
       </c>
       <c r="I11" t="n">
-        <v>1.031548205554401</v>
+        <v>0.5478355534232571</v>
       </c>
       <c r="J11" t="n">
-        <v>1.516929164668523</v>
+        <v>1.115785822361156</v>
       </c>
       <c r="K11" t="n">
-        <v>1.554456333813129</v>
+        <v>0.700657162629562</v>
       </c>
       <c r="L11" t="n">
-        <v>0.955655116429022</v>
+        <v>0.8725883550636192</v>
       </c>
       <c r="M11" t="n">
-        <v>1.316583171666879</v>
+        <v>0.3737711421287407</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6068945775348414</v>
+        <v>0.215932304366528</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1004,134 +1002,136 @@
       <c r="D12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>-0.1871933284077649</v>
+      </c>
       <c r="F12" t="n">
-        <v>0.7403416152283866</v>
+        <v>0.2526349897326587</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8501381412757458</v>
+        <v>1.168452757981424</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6744016713262324</v>
+        <v>0.4124235614055669</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7150451177835609</v>
+        <v>1.517416636028743</v>
       </c>
       <c r="J12" t="n">
-        <v>1.10681077450514</v>
+        <v>1.275452209310847</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8550886949320937</v>
+        <v>1.927360831597914</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8154072602401475</v>
+        <v>1.950880463141911</v>
       </c>
       <c r="M12" t="n">
-        <v>1.014058233855461</v>
+        <v>1.049086563727598</v>
       </c>
       <c r="N12" t="n">
-        <v>0.7020815631170438</v>
+        <v>1.486144426923484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MA(1)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>t-student</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8019825268384984</v>
+        <v>-1.702335400483126</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2652639941168483</v>
+        <v>0.9202751044397484</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2567453125547569</v>
+        <v>1.641422611303209</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5360507557344912</v>
+        <v>0.7633635916933614</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1923281788211045</v>
+        <v>1.71512473091498</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8240690621055948</v>
+        <v>1.141763750330097</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9149667824285264</v>
+        <v>0.2137678262991045</v>
       </c>
       <c r="L13" t="n">
-        <v>1.501559816234284</v>
+        <v>0.1621177730314299</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2587080139253541</v>
+        <v>1.639879964488586</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2126269518970051</v>
+        <v>1.573501925288991</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>2</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Promedio</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MA(1)</t>
+          <t>AR(1)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>t-student</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="n">
-        <v>-2.205708600621761</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>1.270069292907252</v>
+        <v>0.7364724446433776</v>
       </c>
       <c r="G14" t="n">
-        <v>1.250345599198468</v>
+        <v>0.8240224990492172</v>
       </c>
       <c r="H14" t="n">
-        <v>1.674968856754256</v>
+        <v>0.7042227120309383</v>
       </c>
       <c r="I14" t="n">
-        <v>1.870540481204931</v>
+        <v>0.8535096992769015</v>
       </c>
       <c r="J14" t="n">
-        <v>1.054802123027452</v>
+        <v>1.208951582070613</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9367995334756044</v>
+        <v>0.8229610636157627</v>
       </c>
       <c r="L14" t="n">
-        <v>1.531633914500887</v>
+        <v>0.8710543998504864</v>
       </c>
       <c r="M14" t="n">
-        <v>1.627859209031492</v>
+        <v>0.8286424502357551</v>
       </c>
       <c r="N14" t="n">
-        <v>2.015915032732122</v>
+        <v>0.7738419913387261</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1140,46 +1140,46 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>t-student</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.466761024637554</v>
+        <v>1.141401855113315</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4453984482669353</v>
+        <v>0.5075510645285355</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2761267593361629</v>
+        <v>0.4425270900194191</v>
       </c>
       <c r="H15" t="n">
-        <v>1.015402787487327</v>
+        <v>0.6873426639340973</v>
       </c>
       <c r="I15" t="n">
-        <v>0.205720811452432</v>
+        <v>0.480935467839805</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8054504735710553</v>
+        <v>1.000960716553459</v>
       </c>
       <c r="K15" t="n">
-        <v>1.238168505420624</v>
+        <v>0.4137328462263857</v>
       </c>
       <c r="L15" t="n">
-        <v>1.857485154292868</v>
+        <v>0.3881190146688131</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2727213816704854</v>
+        <v>0.48993745874591</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3882142109306483</v>
+        <v>0.4171188928848244</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1188,46 +1188,46 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>t-student</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.09044752041541054</v>
+        <v>0.7084844660375201</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3652336085908607</v>
+        <v>0.2872389919768672</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2938544007104754</v>
+        <v>0.3589553910411304</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3154246606208368</v>
+        <v>0.4249238877321641</v>
       </c>
       <c r="I16" t="n">
-        <v>0.253885935618134</v>
+        <v>0.2791932327186922</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8591078338921322</v>
+        <v>0.9690585179572595</v>
       </c>
       <c r="K16" t="n">
-        <v>1.427749966256307</v>
+        <v>0.3461926964689516</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9246409695971591</v>
+        <v>0.2950962304401578</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2464631572931303</v>
+        <v>0.3180726796419097</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4172909589316178</v>
+        <v>0.2868960334512367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1236,46 +1236,46 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>t-student</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2718405741331466</v>
+        <v>1.229569142981684</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5872808871844886</v>
+        <v>0.5628225057516014</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3404242758919624</v>
+        <v>0.5827801375889246</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3132645248173849</v>
+        <v>0.7203386850371382</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2646503042985966</v>
+        <v>0.6615733798103053</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9207527596882912</v>
+        <v>1.010476216589014</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2285010444067438</v>
+        <v>0.4585608456823012</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3458830219491964</v>
+        <v>0.3949615526122128</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2554786659683662</v>
+        <v>0.8878256583226123</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5891781040476418</v>
+        <v>0.5970703061922888</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1284,46 +1284,46 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>t-student</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.152228760960047</v>
+        <v>0.03437408760461713</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2781649641027136</v>
+        <v>0.2096391751375831</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4669241104735672</v>
+        <v>0.0985937796770594</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3091136806770108</v>
+        <v>0.2874921256625366</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2753482778172471</v>
+        <v>0.3599808869973552</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8617033624162962</v>
+        <v>0.934122833530018</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2320460855571087</v>
+        <v>0.244534221575779</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3052985126873261</v>
+        <v>0.203837593293866</v>
       </c>
       <c r="M18" t="n">
-        <v>0.357818248207625</v>
+        <v>0.2370117290626054</v>
       </c>
       <c r="N18" t="n">
-        <v>0.4500044462507475</v>
+        <v>0.2979527350847559</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1332,46 +1332,46 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>t-student</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.2280437797829196</v>
+        <v>-0.7404453617352788</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2250868861350368</v>
+        <v>0.7282435341770471</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2886172519817137</v>
+        <v>0.2129165845899628</v>
       </c>
       <c r="H19" t="n">
-        <v>0.329127991048026</v>
+        <v>0.4590346201837199</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2206319238617641</v>
+        <v>0.3541757538539416</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8771403145596935</v>
+        <v>0.8937918814083594</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2976681262247988</v>
+        <v>1.038307977717461</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6810597607707589</v>
+        <v>1.309442047380737</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2706106103654037</v>
+        <v>0.3339343028856485</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2375378350211668</v>
+        <v>0.2722438403239087</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1380,46 +1380,46 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>t-student</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.483469683252112</v>
+        <v>0.4771086536414199</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5746292293126305</v>
+        <v>0.2111292732342254</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25819038087649</v>
+        <v>0.5495615900826756</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9528259118817614</v>
+        <v>0.3522665000503361</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9037394318686953</v>
+        <v>0.3473352540062782</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8126055669766704</v>
+        <v>0.9561192854715765</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9289198257385639</v>
+        <v>0.5135814067064287</v>
       </c>
       <c r="L20" t="n">
-        <v>1.533043533112527</v>
+        <v>0.4425899763254381</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5959357856092299</v>
+        <v>0.3057174417241412</v>
       </c>
       <c r="N20" t="n">
-        <v>1.238176922453013</v>
+        <v>0.5231268686430806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1428,137 +1428,329 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>t-student</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.786041425687011</v>
+        <v>-0.3463702240703861</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1920945140926814</v>
+        <v>0.392092290394347</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6630208342237706</v>
+        <v>0.5319515542583089</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5210401327802625</v>
+        <v>0.3152596523709028</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2730302987904711</v>
+        <v>0.5189697513727283</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8245862935123677</v>
+        <v>0.9128258681411483</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4290375719085924</v>
+        <v>0.2989946468868382</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9076730420084533</v>
+        <v>0.2879082719847083</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6815262751805425</v>
+        <v>0.8451301910767468</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4691195656286929</v>
+        <v>0.6361884909149097</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MA(1)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.5026228807126156</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.514421596378396</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3658970029212981</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3709896675296706</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2407201704327914</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9040373819525038</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5990010350762384</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.7445187226335834</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.2405586025392189</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2479343763128162</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MA(1)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.565371735592149</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8105242011986641</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8890083472707889</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9970612799080135</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8117907682549476</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.072635371262174</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.459847285998825</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.467477504077702</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.128909287348441</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.020141639642666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>10</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>MA(1)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>t-student</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9378812871972964</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.254005367719575</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.7230227116237681</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.5479852209795467</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.4037483919711125</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.046182197213546</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.591763843102027</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.076588274434516</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.5196420492816607</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.3683056204477041</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.180199153518281</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.54396252000423</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5120248111191985</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6653250894237626</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3255266057257533</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.005552624703727</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.6610368460343956</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.6412941475067608</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.4138564627361063</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.3394143072615533</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MA(1)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.3955262208335694</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4274531827696816</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2108172296920183</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.338899223426163</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3302675841954401</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9101282763350604</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.7617627807304622</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9405715146724534</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2935719918123803</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2469574510428495</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MA(1)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.800713191375049</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3283514969747308</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4009704290249208</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.4603153074568959</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.6599829845381477</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9738749377081102</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4502084755628941</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3870530696538899</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5545669212696475</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.6346492286616825</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Promedio</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>MA(1)</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>t-student</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.5457227192429022</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.5817271636871135</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.6515204522780904</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.4863624035704488</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8886399986963098</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.8225621284518898</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.066486599958797</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.5086763396533289</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.638636964834036</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.4602858193771591</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.4296669956071421</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5066040585596168</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.4475376533121822</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9619653259677009</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.60381342205558</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.6252391371041935</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5040910605971139</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.4599745142013811</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,34 +523,34 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4391947799404573</v>
+        <v>2.354315403920637</v>
       </c>
       <c r="F2" t="n">
-        <v>0.280176436088491</v>
+        <v>1.083891622959467</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1427876977401354</v>
+        <v>0.468102293292641</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4127792742118284</v>
+        <v>1.218840234852535</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2052765787541329</v>
+        <v>0.2333152731699267</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253156790920255</v>
+        <v>1.330412604122964</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2278851150392112</v>
+        <v>0.8158269524473714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2459270742492109</v>
+        <v>0.7474871919534316</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3068672334673084</v>
+        <v>0.178879382384816</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2544328657890937</v>
+        <v>0.2244562714330278</v>
       </c>
     </row>
     <row r="3">
@@ -571,34 +571,34 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.242712789843943</v>
+        <v>3.190652894691369</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2607050659720658</v>
+        <v>1.698154754662957</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1536808083656432</v>
+        <v>0.8021586894684363</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4089169444412364</v>
+        <v>1.886140314576456</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2073276590729151</v>
+        <v>0.3844559127745277</v>
       </c>
       <c r="J3" t="n">
-        <v>1.269323276420944</v>
+        <v>1.420459147393328</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2141025557800378</v>
+        <v>0.6252332625047938</v>
       </c>
       <c r="L3" t="n">
-        <v>0.161486837927117</v>
+        <v>0.5077202482226305</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2541949430787785</v>
+        <v>0.4783924177582699</v>
       </c>
       <c r="N3" t="n">
-        <v>0.291707473161857</v>
+        <v>0.7150802718271987</v>
       </c>
     </row>
     <row r="4">
@@ -619,34 +619,34 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253050462133608</v>
+        <v>2.608752223239712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9625195229041578</v>
+        <v>1.24754219697211</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6853251069471707</v>
+        <v>1.279655933839852</v>
       </c>
       <c r="H4" t="n">
-        <v>1.077167118009555</v>
+        <v>1.380629482804111</v>
       </c>
       <c r="I4" t="n">
-        <v>1.002848377288229</v>
+        <v>0.407384626206168</v>
       </c>
       <c r="J4" t="n">
-        <v>1.406145746643962</v>
+        <v>1.362582995588265</v>
       </c>
       <c r="K4" t="n">
-        <v>1.233559888613904</v>
+        <v>0.3814740306092502</v>
       </c>
       <c r="L4" t="n">
-        <v>1.181711917024253</v>
+        <v>0.3187369353798677</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9544738456940576</v>
+        <v>2.001724051889724</v>
       </c>
       <c r="N4" t="n">
-        <v>1.065505347579154</v>
+        <v>0.2332915509516632</v>
       </c>
     </row>
     <row r="5">
@@ -667,34 +667,34 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.43891302501105</v>
+        <v>0.5803256345134316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7290236225855294</v>
+        <v>0.4303832630868527</v>
       </c>
       <c r="G5" t="n">
-        <v>2.225404221833818</v>
+        <v>1.036841826952578</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6688286797701772</v>
+        <v>0.5175692555206233</v>
       </c>
       <c r="I5" t="n">
-        <v>2.434508968522655</v>
+        <v>1.737984011366296</v>
       </c>
       <c r="J5" t="n">
-        <v>1.162507405139005</v>
+        <v>1.174717187685578</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7094591483191943</v>
+        <v>1.847545942000418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8873903387009525</v>
+        <v>2.033388687328735</v>
       </c>
       <c r="M5" t="n">
-        <v>1.824927417794814</v>
+        <v>1.189801318015665</v>
       </c>
       <c r="N5" t="n">
-        <v>2.140249381841854</v>
+        <v>1.463878511254781</v>
       </c>
     </row>
     <row r="6">
@@ -715,34 +715,34 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.531871987019629</v>
+        <v>0.2350194980738116</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7997529706806685</v>
+        <v>0.4779447973343727</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2714281162697881</v>
+        <v>0.3180620451948263</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6720338977700961</v>
+        <v>0.5443433793488992</v>
       </c>
       <c r="I6" t="n">
-        <v>0.15161754090967</v>
+        <v>0.7230271603665862</v>
       </c>
       <c r="J6" t="n">
-        <v>1.157004304263798</v>
+        <v>1.151932687558343</v>
       </c>
       <c r="K6" t="n">
-        <v>2.262738023745956</v>
+        <v>1.607550714455432</v>
       </c>
       <c r="L6" t="n">
-        <v>2.502068556685275</v>
+        <v>1.775120342218085</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3433813703689279</v>
+        <v>0.3524671490949287</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4895961622859197</v>
+        <v>0.2131834752240013</v>
       </c>
     </row>
     <row r="7">
@@ -763,34 +763,34 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.202172366945219</v>
+        <v>0.6416115236241455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5781302272077913</v>
+        <v>0.4292612162126801</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3293385761621772</v>
+        <v>0.3132370563220277</v>
       </c>
       <c r="H7" t="n">
-        <v>0.606568683122727</v>
+        <v>0.574287450837174</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6196424600613908</v>
+        <v>0.230416036894571</v>
       </c>
       <c r="J7" t="n">
-        <v>1.185519225601247</v>
+        <v>1.192992074327296</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3632176531356495</v>
+        <v>0.2235438256374703</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3022648373989401</v>
+        <v>0.2705472256048234</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3850827629145197</v>
+        <v>0.3548519392561077</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2470106539886805</v>
+        <v>0.3935683052506395</v>
       </c>
     </row>
     <row r="8">
@@ -811,34 +811,34 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.7859611405635978</v>
+        <v>-0.2064212492625239</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3712384091483952</v>
+        <v>0.6038858334929422</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2371940867112247</v>
+        <v>0.3211700652541792</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4417492303824937</v>
+        <v>0.5637181348488285</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2576599071762581</v>
+        <v>0.6324006779951863</v>
       </c>
       <c r="J8" t="n">
-        <v>1.221417944187562</v>
+        <v>1.12692576763517</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4618244738442552</v>
+        <v>0.2428709598684402</v>
       </c>
       <c r="L8" t="n">
-        <v>0.404538414711585</v>
+        <v>0.2708817905381794</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3086203908153451</v>
+        <v>0.5289983757679734</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2977671174255628</v>
+        <v>0.3773642457269758</v>
       </c>
     </row>
     <row r="9">
@@ -859,34 +859,34 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.079279607828528</v>
+        <v>-0.8970772906205373</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5051139283182715</v>
+        <v>0.9137060151385448</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8411596141356122</v>
+        <v>0.538543697723057</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5176588185280092</v>
+        <v>0.7979105163972589</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4460087325241173</v>
+        <v>0.563298841489501</v>
       </c>
       <c r="J9" t="n">
-        <v>1.195820114307767</v>
+        <v>1.095857720918379</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2572519369261406</v>
+        <v>0.8530713121210909</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3178307188154236</v>
+        <v>0.9091318998977227</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7445057657887683</v>
+        <v>0.4422856451136367</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2334793241447689</v>
+        <v>0.4661031590940097</v>
       </c>
     </row>
     <row r="10">
@@ -907,34 +907,34 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.728073429524258</v>
+        <v>0.7006522434363281</v>
       </c>
       <c r="F10" t="n">
-        <v>1.879263552013414</v>
+        <v>0.4214990804473275</v>
       </c>
       <c r="G10" t="n">
-        <v>1.796522250645631</v>
+        <v>0.9713384033845612</v>
       </c>
       <c r="H10" t="n">
-        <v>1.463981747179787</v>
+        <v>0.522520130389007</v>
       </c>
       <c r="I10" t="n">
-        <v>1.136849246646469</v>
+        <v>0.8364498949540073</v>
       </c>
       <c r="J10" t="n">
-        <v>1.123522395360715</v>
+        <v>1.223760775778113</v>
       </c>
       <c r="K10" t="n">
-        <v>1.303708147458225</v>
+        <v>0.53835975309544</v>
       </c>
       <c r="L10" t="n">
-        <v>1.463847511456118</v>
+        <v>0.4997211529984542</v>
       </c>
       <c r="M10" t="n">
-        <v>1.758918002561617</v>
+        <v>0.7434939399177874</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9907769132688189</v>
+        <v>1.155972343456121</v>
       </c>
     </row>
     <row r="11">
@@ -955,34 +955,34 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.127270602857722</v>
+        <v>-1.704089256946336</v>
       </c>
       <c r="F11" t="n">
-        <v>1.29883550662934</v>
+        <v>1.439080552379847</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3955541404947727</v>
+        <v>1.507344518513096</v>
       </c>
       <c r="H11" t="n">
-        <v>1.005200997856422</v>
+        <v>1.321946917461517</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5478355534232571</v>
+        <v>1.610221901541701</v>
       </c>
       <c r="J11" t="n">
-        <v>1.115785822361156</v>
+        <v>1.106238794331519</v>
       </c>
       <c r="K11" t="n">
-        <v>0.700657162629562</v>
+        <v>0.4890885719048976</v>
       </c>
       <c r="L11" t="n">
-        <v>0.8725883550636192</v>
+        <v>0.4706860671984485</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3737711421287407</v>
+        <v>1.415884322609427</v>
       </c>
       <c r="N11" t="n">
-        <v>0.215932304366528</v>
+        <v>1.596601270325984</v>
       </c>
     </row>
     <row r="12">
@@ -1003,34 +1003,34 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1871933284077649</v>
+        <v>-3.208135864618144</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2526349897326587</v>
+        <v>2.805873193449528</v>
       </c>
       <c r="G12" t="n">
-        <v>1.168452757981424</v>
+        <v>1.659000529236899</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4124235614055669</v>
+        <v>2.46674485798961</v>
       </c>
       <c r="I12" t="n">
-        <v>1.517416636028743</v>
+        <v>1.515740822087538</v>
       </c>
       <c r="J12" t="n">
-        <v>1.275452209310847</v>
+        <v>1.742998847893299</v>
       </c>
       <c r="K12" t="n">
-        <v>1.927360831597914</v>
+        <v>3.182120400824687</v>
       </c>
       <c r="L12" t="n">
-        <v>1.950880463141911</v>
+        <v>3.240259471085115</v>
       </c>
       <c r="M12" t="n">
-        <v>1.049086563727598</v>
+        <v>1.842950729708694</v>
       </c>
       <c r="N12" t="n">
-        <v>1.486144426923484</v>
+        <v>0.9176939952677238</v>
       </c>
     </row>
     <row r="13">
@@ -1051,45 +1051,43 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.702335400483126</v>
+        <v>-3.963024713446951</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9202751044397484</v>
+        <v>3.543852008946591</v>
       </c>
       <c r="G13" t="n">
-        <v>1.641422611303209</v>
+        <v>0.9987214869111467</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7633635916933614</v>
+        <v>3.122898890205013</v>
       </c>
       <c r="I13" t="n">
-        <v>1.71512473091498</v>
+        <v>0.9602085566162116</v>
       </c>
       <c r="J13" t="n">
-        <v>1.141763750330097</v>
+        <v>2.20296232229587</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2137678262991045</v>
+        <v>2.030584084822666</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1621177730314299</v>
+        <v>1.925104605640507</v>
       </c>
       <c r="M13" t="n">
-        <v>1.639879964488586</v>
+        <v>1.466508242556247</v>
       </c>
       <c r="N13" t="n">
-        <v>1.573501925288991</v>
+        <v>0.9391122800233652</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
+      <c r="A14" t="n">
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AR(1)</t>
+          <t>MA(1)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1100,38 +1098,40 @@
       <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>-1.199360263475659</v>
+      </c>
       <c r="F14" t="n">
-        <v>0.7364724446433776</v>
+        <v>0.6637325409165999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8240224990492172</v>
+        <v>0.8460560469340358</v>
       </c>
       <c r="H14" t="n">
-        <v>0.7042227120309383</v>
+        <v>0.6321172163834434</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8535096992769015</v>
+        <v>0.4562082232749697</v>
       </c>
       <c r="J14" t="n">
-        <v>1.208951582070613</v>
+        <v>0.7088755012672876</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8229610636157627</v>
+        <v>1.204519599740304</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8710543998504864</v>
+        <v>1.221712425855758</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8286424502357551</v>
+        <v>0.8937091780845721</v>
       </c>
       <c r="N14" t="n">
-        <v>0.7738419913387261</v>
+        <v>0.6197508625883251</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1147,39 +1147,39 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.141401855113315</v>
+        <v>-0.9176057669517854</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5075510645285355</v>
+        <v>0.4250508706892372</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4425270900194191</v>
+        <v>0.6565052073351548</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6873426639340973</v>
+        <v>0.4847360253616328</v>
       </c>
       <c r="I15" t="n">
-        <v>0.480935467839805</v>
+        <v>0.3233920002366701</v>
       </c>
       <c r="J15" t="n">
-        <v>1.000960716553459</v>
+        <v>0.7354865114662432</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4137328462263857</v>
+        <v>0.3380705489779425</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3881190146688131</v>
+        <v>0.3239469929315343</v>
       </c>
       <c r="M15" t="n">
-        <v>0.48993745874591</v>
+        <v>0.3396616491140334</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4171188928848244</v>
+        <v>0.2824844606701911</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1195,39 +1195,39 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7084844660375201</v>
+        <v>0.6334896759067291</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2872389919768672</v>
+        <v>0.5344736417722633</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3589553910411304</v>
+        <v>0.4060747455150034</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4249238877321641</v>
+        <v>0.4674683791913925</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2791932327186922</v>
+        <v>0.5333665066761917</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9690585179572595</v>
+        <v>0.9132706693021186</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3461926964689516</v>
+        <v>0.8244278837418509</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2950962304401578</v>
+        <v>0.877733657919093</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3180726796419097</v>
+        <v>0.8270432585384515</v>
       </c>
       <c r="N16" t="n">
-        <v>0.2868960334512367</v>
+        <v>0.4117615105542072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1243,39 +1243,39 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1.229569142981684</v>
+        <v>0.5947475502906933</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5628225057516014</v>
+        <v>0.5051084784026809</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5827801375889246</v>
+        <v>0.5292333677005698</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7203386850371382</v>
+        <v>0.4718181318054359</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6615733798103053</v>
+        <v>0.2433622882292718</v>
       </c>
       <c r="J17" t="n">
-        <v>1.010476216589014</v>
+        <v>0.9090106027398017</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4585608456823012</v>
+        <v>0.4930468661545232</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3949615526122128</v>
+        <v>0.5394902793846678</v>
       </c>
       <c r="M17" t="n">
-        <v>0.8878256583226123</v>
+        <v>0.3895570174468762</v>
       </c>
       <c r="N17" t="n">
-        <v>0.5970703061922888</v>
+        <v>0.2194703973390576</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1291,39 +1291,39 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.03437408760461713</v>
+        <v>-0.3770976967562029</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2096391751375831</v>
+        <v>0.1728377314629877</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0985937796770594</v>
+        <v>0.4674483425072582</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2874921256625366</v>
+        <v>0.3201250517793569</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3599808869973552</v>
+        <v>0.2678407731502495</v>
       </c>
       <c r="J18" t="n">
-        <v>0.934122833530018</v>
+        <v>0.7966605152061212</v>
       </c>
       <c r="K18" t="n">
-        <v>0.244534221575779</v>
+        <v>0.4992768748766976</v>
       </c>
       <c r="L18" t="n">
-        <v>0.203837593293866</v>
+        <v>0.460898931247091</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2370117290626054</v>
+        <v>0.2274069991477239</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2979527350847559</v>
+        <v>0.2407884817316218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1339,39 +1339,39 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.7404453617352788</v>
+        <v>-1.102180713756795</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7282435341770471</v>
+        <v>0.5781121096853959</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2129165845899628</v>
+        <v>0.3264661141597706</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4590346201837199</v>
+        <v>0.6077606070937366</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3541757538539416</v>
+        <v>0.479942695917741</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8937918814083594</v>
+        <v>0.721188044851758</v>
       </c>
       <c r="K19" t="n">
-        <v>1.038307977717461</v>
+        <v>0.590715656470006</v>
       </c>
       <c r="L19" t="n">
-        <v>1.309442047380737</v>
+        <v>0.5787605078769302</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3339343028856485</v>
+        <v>0.9176104232099593</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2722438403239087</v>
+        <v>0.4767611027812135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1387,39 +1387,39 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4771086536414199</v>
+        <v>-0.4833954923951277</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2111292732342254</v>
+        <v>0.1927766431805644</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5495615900826756</v>
+        <v>0.4886212073600532</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3522665000503361</v>
+        <v>0.3401783083232532</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3473352540062782</v>
+        <v>0.2557282706852437</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9561192854715765</v>
+        <v>0.7847847912265655</v>
       </c>
       <c r="K20" t="n">
-        <v>0.5135814067064287</v>
+        <v>0.2401938483972749</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4425899763254381</v>
+        <v>0.2118802211367065</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3057174417241412</v>
+        <v>0.3149110298271645</v>
       </c>
       <c r="N20" t="n">
-        <v>0.5231268686430806</v>
+        <v>0.2349131059152145</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1435,39 +1435,39 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.3463702240703861</v>
+        <v>-0.08776312902126937</v>
       </c>
       <c r="F21" t="n">
-        <v>0.392092290394347</v>
+        <v>0.1722842628754563</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5319515542583089</v>
+        <v>0.2155556563670935</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3152596523709028</v>
+        <v>0.2825082192412127</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5189697513727283</v>
+        <v>0.2396423640864893</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9128258681411483</v>
+        <v>0.8305229974381103</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2989946468868382</v>
+        <v>0.3435876395138338</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2879082719847083</v>
+        <v>0.3774305820993388</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8451301910767468</v>
+        <v>0.3855271117710803</v>
       </c>
       <c r="N21" t="n">
-        <v>0.6361884909149097</v>
+        <v>0.2352259756758666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1483,39 +1483,39 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5026228807126156</v>
+        <v>0.1727471565799526</v>
       </c>
       <c r="F22" t="n">
-        <v>0.514421596378396</v>
+        <v>0.2472734704345209</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3658970029212981</v>
+        <v>0.2514571407609861</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3709896675296706</v>
+        <v>0.3135233396674624</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2407201704327914</v>
+        <v>0.2594308203961656</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9040373819525038</v>
+        <v>0.8607751430941666</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5990010350762384</v>
+        <v>0.2551805011200191</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7445187226335834</v>
+        <v>0.2281594602025943</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2405586025392189</v>
+        <v>0.2756526559809042</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2479343763128162</v>
+        <v>0.3237502343662979</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1531,39 +1531,39 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1.565371735592149</v>
+        <v>0.2202070666544895</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8105242011986641</v>
+        <v>0.2687591362061268</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8890083472707889</v>
+        <v>0.3090958812151904</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9970612799080135</v>
+        <v>0.3168578327294616</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8117907682549476</v>
+        <v>0.236066721634264</v>
       </c>
       <c r="J23" t="n">
-        <v>1.072635371262174</v>
+        <v>0.8664472317888381</v>
       </c>
       <c r="K23" t="n">
-        <v>1.459847285998825</v>
+        <v>0.3067764406955029</v>
       </c>
       <c r="L23" t="n">
-        <v>1.467477504077702</v>
+        <v>0.3239496576322986</v>
       </c>
       <c r="M23" t="n">
-        <v>1.128909287348441</v>
+        <v>0.2888657980097096</v>
       </c>
       <c r="N23" t="n">
-        <v>1.020141639642666</v>
+        <v>0.2369410904864473</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1579,39 +1579,39 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>1.180199153518281</v>
+        <v>-1.471712069531029</v>
       </c>
       <c r="F24" t="n">
-        <v>0.54396252000423</v>
+        <v>0.9234419657142934</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5120248111191985</v>
+        <v>1.055491168869401</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6653250894237626</v>
+        <v>0.9012813598807563</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3255266057257533</v>
+        <v>0.893889933414293</v>
       </c>
       <c r="J24" t="n">
-        <v>1.005552624703727</v>
+        <v>0.7037319863153972</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6610368460343956</v>
+        <v>0.9913100160409892</v>
       </c>
       <c r="L24" t="n">
-        <v>0.6412941475067608</v>
+        <v>1.047134484113119</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4138564627361063</v>
+        <v>1.261960283805983</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3394143072615533</v>
+        <v>1.051793463941187</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1627,130 +1627,34 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3955262208335694</v>
+        <v>-0.3975702024012262</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4274531827696816</v>
+        <v>0.1727456619205007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2108172296920183</v>
+        <v>0.4337294756264078</v>
       </c>
       <c r="H25" t="n">
-        <v>0.338899223426163</v>
+        <v>0.3239737477224996</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3302675841954401</v>
+        <v>0.3989231778659814</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9101282763350604</v>
+        <v>0.7950334467200839</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7617627807304622</v>
+        <v>0.2618095568138273</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9405715146724534</v>
+        <v>0.2118601283444303</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2935719918123803</v>
+        <v>0.3199749293544538</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2469574510428495</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>12</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MA(1)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.800713191375049</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.3283514969747308</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.4009704290249208</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.4603153074568959</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.6599829845381477</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.9738749377081102</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.4502084755628941</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.3870530696538899</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5545669212696475</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.6346492286616825</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Promedio</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MA(1)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>0.4602858193771591</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.4296669956071421</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.5066040585596168</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.4475376533121822</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.9619653259677009</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.60381342205558</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.6252391371041935</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.5040910605971139</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.4599745142013811</v>
+        <v>0.356172694652413</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
@@ -461,47 +461,47 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Block Bootstrapping</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Sieve Bootstrap</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LSPM</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LSPMW</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>AREPD</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MCPS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AV-MCPS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>DeepAR</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
         </is>
       </c>
     </row>
@@ -526,31 +526,31 @@
         <v>2.354315403920637</v>
       </c>
       <c r="F2" t="n">
-        <v>1.083891622959467</v>
+        <v>1.226924623394829</v>
       </c>
       <c r="G2" t="n">
-        <v>0.468102293292641</v>
+        <v>0.2244562714330278</v>
       </c>
       <c r="H2" t="n">
-        <v>1.218840234852535</v>
+        <v>0.8158269524473714</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2333152731699267</v>
+        <v>0.7474871919534316</v>
       </c>
       <c r="J2" t="n">
-        <v>1.330412604122964</v>
+        <v>1.052634119590127</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8158269524473714</v>
+        <v>0.3741561748674948</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7474871919534316</v>
+        <v>0.4811661845849273</v>
       </c>
       <c r="M2" t="n">
-        <v>0.178879382384816</v>
+        <v>0.1793823735526282</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2244562714330278</v>
+        <v>1.19174488844377</v>
       </c>
     </row>
     <row r="3">
@@ -574,31 +574,31 @@
         <v>3.190652894691369</v>
       </c>
       <c r="F3" t="n">
-        <v>1.698154754662957</v>
+        <v>1.778796605821918</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8021586894684363</v>
+        <v>0.7150802718271987</v>
       </c>
       <c r="H3" t="n">
-        <v>1.886140314576456</v>
+        <v>0.6252332625047938</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3844559127745277</v>
+        <v>1.547999074363817</v>
       </c>
       <c r="J3" t="n">
-        <v>1.420459147393328</v>
+        <v>1.658752776116569</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6252332625047938</v>
+        <v>0.5093420019891721</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5077202482226305</v>
+        <v>0.6665048839020538</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4783924177582699</v>
+        <v>0.5507379707770272</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7150802718271987</v>
+        <v>1.295481679568396</v>
       </c>
     </row>
     <row r="4">
@@ -622,31 +622,31 @@
         <v>2.608752223239712</v>
       </c>
       <c r="F4" t="n">
-        <v>1.24754219697211</v>
+        <v>1.386062675709015</v>
       </c>
       <c r="G4" t="n">
-        <v>1.279655933839852</v>
+        <v>0.2332915509516632</v>
       </c>
       <c r="H4" t="n">
-        <v>1.380629482804111</v>
+        <v>0.3814740306092502</v>
       </c>
       <c r="I4" t="n">
-        <v>0.407384626206168</v>
+        <v>0.975909184646331</v>
       </c>
       <c r="J4" t="n">
-        <v>1.362582995588265</v>
+        <v>1.204785416641957</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3814740306092502</v>
+        <v>0.927660621597965</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3187369353798677</v>
+        <v>0.7854608458592057</v>
       </c>
       <c r="M4" t="n">
-        <v>2.001724051889724</v>
+        <v>0.2541262744218593</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2332915509516632</v>
+        <v>1.240040281390922</v>
       </c>
     </row>
     <row r="5">
@@ -670,31 +670,31 @@
         <v>0.5803256345134316</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4303832630868527</v>
+        <v>0.5349509838935558</v>
       </c>
       <c r="G5" t="n">
-        <v>1.036841826952578</v>
+        <v>1.463878511254781</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5175692555206233</v>
+        <v>1.847545942000418</v>
       </c>
       <c r="I5" t="n">
-        <v>1.737984011366296</v>
+        <v>0.3470519864326069</v>
       </c>
       <c r="J5" t="n">
-        <v>1.174717187685578</v>
+        <v>0.4025449673880657</v>
       </c>
       <c r="K5" t="n">
-        <v>1.847545942000418</v>
+        <v>1.517835474385723</v>
       </c>
       <c r="L5" t="n">
-        <v>2.033388687328735</v>
+        <v>1.01641162707222</v>
       </c>
       <c r="M5" t="n">
-        <v>1.189801318015665</v>
+        <v>1.624204504953172</v>
       </c>
       <c r="N5" t="n">
-        <v>1.463878511254781</v>
+        <v>1.058161099876447</v>
       </c>
     </row>
     <row r="6">
@@ -718,31 +718,31 @@
         <v>0.2350194980738116</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4779447973343727</v>
+        <v>0.4872451287413546</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3180620451948263</v>
+        <v>0.2131834752240013</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5443433793488992</v>
+        <v>1.607550714455432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7230271603665862</v>
+        <v>0.5222527728341866</v>
       </c>
       <c r="J6" t="n">
-        <v>1.151932687558343</v>
+        <v>0.4554449993668057</v>
       </c>
       <c r="K6" t="n">
-        <v>1.607550714455432</v>
+        <v>0.1948922942347683</v>
       </c>
       <c r="L6" t="n">
-        <v>1.775120342218085</v>
+        <v>0.3432584831700483</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3524671490949287</v>
+        <v>0.6742657760268511</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2131834752240013</v>
+        <v>1.046586658523247</v>
       </c>
     </row>
     <row r="7">
@@ -766,31 +766,31 @@
         <v>0.6416115236241455</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4292612162126801</v>
+        <v>0.5601735230247373</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3132370563220277</v>
+        <v>0.3935683052506395</v>
       </c>
       <c r="H7" t="n">
-        <v>0.574287450837174</v>
+        <v>0.2235438256374703</v>
       </c>
       <c r="I7" t="n">
-        <v>0.230416036894571</v>
+        <v>0.3246357140290516</v>
       </c>
       <c r="J7" t="n">
-        <v>1.192992074327296</v>
+        <v>0.3986377338024754</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2235438256374703</v>
+        <v>0.3748093418793953</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2705472256048234</v>
+        <v>0.5137295931781937</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3548519392561077</v>
+        <v>0.184225657456271</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3935683052506395</v>
+        <v>1.099638667864436</v>
       </c>
     </row>
     <row r="8">
@@ -814,31 +814,31 @@
         <v>-0.2064212492625239</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6038858334929422</v>
+        <v>0.5611035176912833</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3211700652541792</v>
+        <v>0.3773642457269758</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5637181348488285</v>
+        <v>0.2428709598684402</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6324006779951863</v>
+        <v>0.8871943794329584</v>
       </c>
       <c r="J8" t="n">
-        <v>1.12692576763517</v>
+        <v>0.5963136792778903</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2428709598684402</v>
+        <v>0.1512838697631637</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2708817905381794</v>
+        <v>0.2980657415593938</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5289983757679734</v>
+        <v>0.5898021793249799</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3773642457269758</v>
+        <v>1.039773028100319</v>
       </c>
     </row>
     <row r="9">
@@ -862,31 +862,31 @@
         <v>-0.8970772906205373</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9137060151385448</v>
+        <v>0.8106682412194928</v>
       </c>
       <c r="G9" t="n">
-        <v>0.538543697723057</v>
+        <v>0.4661031590940097</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7979105163972589</v>
+        <v>0.8530713121210909</v>
       </c>
       <c r="I9" t="n">
-        <v>0.563298841489501</v>
+        <v>1.55580164840771</v>
       </c>
       <c r="J9" t="n">
-        <v>1.095857720918379</v>
+        <v>0.9600656753207362</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8530713121210909</v>
+        <v>1.112222296724392</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9091318998977227</v>
+        <v>0.3058378795468658</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4422856451136367</v>
+        <v>0.653731136370021</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4661031590940097</v>
+        <v>1.002511163976704</v>
       </c>
     </row>
     <row r="10">
@@ -910,31 +910,31 @@
         <v>0.7006522434363281</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4214990804473275</v>
+        <v>0.4988686177045323</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9713384033845612</v>
+        <v>1.155972343456121</v>
       </c>
       <c r="H10" t="n">
-        <v>0.522520130389007</v>
+        <v>0.53835975309544</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8364498949540073</v>
+        <v>0.3054037869163848</v>
       </c>
       <c r="J10" t="n">
-        <v>1.223760775778113</v>
+        <v>0.3914477096344753</v>
       </c>
       <c r="K10" t="n">
-        <v>0.53835975309544</v>
+        <v>1.150177668785864</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4997211529984542</v>
+        <v>1.149310659448664</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7434939399177874</v>
+        <v>0.7595436930053753</v>
       </c>
       <c r="N10" t="n">
-        <v>1.155972343456121</v>
+        <v>1.154715860363411</v>
       </c>
     </row>
     <row r="11">
@@ -958,31 +958,31 @@
         <v>-1.704089256946336</v>
       </c>
       <c r="F11" t="n">
-        <v>1.439080552379847</v>
+        <v>1.273663400352505</v>
       </c>
       <c r="G11" t="n">
-        <v>1.507344518513096</v>
+        <v>1.596601270325984</v>
       </c>
       <c r="H11" t="n">
-        <v>1.321946917461517</v>
+        <v>0.4890885719048976</v>
       </c>
       <c r="I11" t="n">
-        <v>1.610221901541701</v>
+        <v>2.361199590800857</v>
       </c>
       <c r="J11" t="n">
-        <v>1.106238794331519</v>
+        <v>1.514595684089588</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4890885719048976</v>
+        <v>1.382924932715614</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4706860671984485</v>
+        <v>1.18127627652726</v>
       </c>
       <c r="M11" t="n">
-        <v>1.415884322609427</v>
+        <v>1.343207018778314</v>
       </c>
       <c r="N11" t="n">
-        <v>1.596601270325984</v>
+        <v>0.9772355457876221</v>
       </c>
     </row>
     <row r="12">
@@ -1006,31 +1006,31 @@
         <v>-3.208135864618144</v>
       </c>
       <c r="F12" t="n">
-        <v>2.805873193449528</v>
+        <v>2.573203820909429</v>
       </c>
       <c r="G12" t="n">
-        <v>1.659000529236899</v>
+        <v>0.9176939952677238</v>
       </c>
       <c r="H12" t="n">
-        <v>2.46674485798961</v>
+        <v>3.182120400824687</v>
       </c>
       <c r="I12" t="n">
-        <v>1.515740822087538</v>
+        <v>3.863597783485248</v>
       </c>
       <c r="J12" t="n">
-        <v>1.742998847893299</v>
+        <v>2.882308576305129</v>
       </c>
       <c r="K12" t="n">
-        <v>3.182120400824687</v>
+        <v>1.64247811206229</v>
       </c>
       <c r="L12" t="n">
-        <v>3.240259471085115</v>
+        <v>1.519823503770773</v>
       </c>
       <c r="M12" t="n">
-        <v>1.842950729708694</v>
+        <v>1.575914032818821</v>
       </c>
       <c r="N12" t="n">
-        <v>0.9176939952677238</v>
+        <v>1.474763295336273</v>
       </c>
     </row>
     <row r="13">
@@ -1054,31 +1054,31 @@
         <v>-3.963024713446951</v>
       </c>
       <c r="F13" t="n">
-        <v>3.543852008946591</v>
+        <v>3.040571943127722</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9987214869111467</v>
+        <v>0.9391122800233652</v>
       </c>
       <c r="H13" t="n">
-        <v>3.122898890205013</v>
+        <v>2.030584084822666</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9602085566162116</v>
+        <v>4.618486632314057</v>
       </c>
       <c r="J13" t="n">
-        <v>2.20296232229587</v>
+        <v>3.618470781169586</v>
       </c>
       <c r="K13" t="n">
-        <v>2.030584084822666</v>
+        <v>1.389423689285336</v>
       </c>
       <c r="L13" t="n">
-        <v>1.925104605640507</v>
+        <v>1.277891755814129</v>
       </c>
       <c r="M13" t="n">
-        <v>1.466508242556247</v>
+        <v>1.225247700571236</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9391122800233652</v>
+        <v>1.906174753729765</v>
       </c>
     </row>
     <row r="14">
@@ -1102,31 +1102,31 @@
         <v>-1.199360263475659</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6637325409165999</v>
+        <v>0.6487996839784451</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8460560469340358</v>
+        <v>0.4633062315487987</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6321172163834434</v>
+        <v>1.204519599740304</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4562082232749697</v>
+        <v>1.221712425855758</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7088755012672876</v>
+        <v>0.5421522313135088</v>
       </c>
       <c r="K14" t="n">
-        <v>1.204519599740304</v>
+        <v>1.033618436045697</v>
       </c>
       <c r="L14" t="n">
-        <v>1.221712425855758</v>
+        <v>1.163085633753081</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8937091780845721</v>
+        <v>0.2930731269332834</v>
       </c>
       <c r="N14" t="n">
-        <v>0.6197508625883251</v>
+        <v>0.711961918205156</v>
       </c>
     </row>
     <row r="15">
@@ -1150,31 +1150,31 @@
         <v>-0.9176057669517854</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4250508706892372</v>
+        <v>0.4940918778199035</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6565052073351548</v>
+        <v>0.2448425912944219</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4847360253616328</v>
+        <v>0.3380705489779425</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3233920002366701</v>
+        <v>0.9559678984815889</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7354865114662432</v>
+        <v>0.3540881160232546</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3380705489779425</v>
+        <v>0.3649411508335579</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3239469929315343</v>
+        <v>0.6628382763493815</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3396616491140334</v>
+        <v>0.3099987478288683</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2824844606701911</v>
+        <v>0.7379913101857172</v>
       </c>
     </row>
     <row r="16">
@@ -1198,31 +1198,31 @@
         <v>0.6334896759067291</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5344736417722633</v>
+        <v>0.4658038999891121</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4060747455150034</v>
+        <v>0.5487206595077961</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4674683791913925</v>
+        <v>0.8244278837418509</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5333665066761917</v>
+        <v>0.2710644823162839</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9132706693021186</v>
+        <v>0.6078709855481128</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8244278837418509</v>
+        <v>0.9617461120447737</v>
       </c>
       <c r="L16" t="n">
-        <v>0.877733657919093</v>
+        <v>0.392061953583276</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8270432585384515</v>
+        <v>0.5905378715551792</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4117615105542072</v>
+        <v>0.9152039536424872</v>
       </c>
     </row>
     <row r="17">
@@ -1246,31 +1246,31 @@
         <v>0.5947475502906933</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5051084784026809</v>
+        <v>0.4743502681473842</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5292333677005698</v>
+        <v>0.2434238848972567</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4718181318054359</v>
+        <v>0.4930468661545232</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2433622882292718</v>
+        <v>0.2673069223247122</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9090106027398017</v>
+        <v>0.5785197825753251</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4930468661545232</v>
+        <v>0.6495970299591682</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5394902793846678</v>
+        <v>0.6146198522687679</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3895570174468762</v>
+        <v>0.226154050337088</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2194703973390576</v>
+        <v>0.911205068968987</v>
       </c>
     </row>
     <row r="18">
@@ -1294,31 +1294,31 @@
         <v>-0.3770976967562029</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1728377314629877</v>
+        <v>0.3028028632463684</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4674483425072582</v>
+        <v>0.2205408325185787</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3201250517793569</v>
+        <v>0.4992768748766976</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2678407731502495</v>
+        <v>0.5108078384372974</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7966605152061212</v>
+        <v>0.1834398199932399</v>
       </c>
       <c r="K18" t="n">
-        <v>0.4992768748766976</v>
+        <v>0.1602494064900193</v>
       </c>
       <c r="L18" t="n">
-        <v>0.460898931247091</v>
+        <v>0.4445817169114058</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2274069991477239</v>
+        <v>0.2469306161443889</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2407884817316218</v>
+        <v>0.7987872126325608</v>
       </c>
     </row>
     <row r="19">
@@ -1342,31 +1342,31 @@
         <v>-1.102180713756795</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5781121096853959</v>
+        <v>0.5890968561237072</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3264661141597706</v>
+        <v>0.4477649677359817</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6077606070937366</v>
+        <v>0.590715656470006</v>
       </c>
       <c r="I19" t="n">
-        <v>0.479942695917741</v>
+        <v>1.127253449116638</v>
       </c>
       <c r="J19" t="n">
-        <v>0.721188044851758</v>
+        <v>0.4684860701125651</v>
       </c>
       <c r="K19" t="n">
-        <v>0.590715656470006</v>
+        <v>0.7832444312157071</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5787605078769302</v>
+        <v>0.7287586519836391</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9176104232099593</v>
+        <v>0.5547888759092583</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4767611027812135</v>
+        <v>0.7230735777736721</v>
       </c>
     </row>
     <row r="20">
@@ -1390,31 +1390,31 @@
         <v>-0.4833954923951277</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1927766431805644</v>
+        <v>0.3373095206161351</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4886212073600532</v>
+        <v>0.2520063687550229</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3401783083232532</v>
+        <v>0.2401938483972749</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2557282706852437</v>
+        <v>0.5835075270528773</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7847847912265655</v>
+        <v>0.1952746629641808</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2401938483972749</v>
+        <v>0.2164191063252457</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2118802211367065</v>
+        <v>0.5297971593036553</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3149110298271645</v>
+        <v>0.268514464372243</v>
       </c>
       <c r="N20" t="n">
-        <v>0.2349131059152145</v>
+        <v>0.7861212864965388</v>
       </c>
     </row>
     <row r="21">
@@ -1438,31 +1438,31 @@
         <v>-0.08776312902126937</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1722842628754563</v>
+        <v>0.2876922893353361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2155556563670935</v>
+        <v>0.2469432477824522</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2825082192412127</v>
+        <v>0.3435876395138338</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2396423640864893</v>
+        <v>0.3701533589031113</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8305229974381103</v>
+        <v>0.2082085681113187</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3435876395138338</v>
+        <v>0.2707113529280156</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3774305820993388</v>
+        <v>0.219769629620479</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3855271117710803</v>
+        <v>0.2616272452617234</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2352259756758666</v>
+        <v>0.8318061264422902</v>
       </c>
     </row>
     <row r="22">
@@ -1486,31 +1486,31 @@
         <v>0.1727471565799526</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2472734704345209</v>
+        <v>0.3164848642364121</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2514571407609861</v>
+        <v>0.3315118335905223</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3135233396674624</v>
+        <v>0.2551805011200191</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2594308203961656</v>
+        <v>0.2908682109888899</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8607751430941666</v>
+        <v>0.2998718948734481</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2551805011200191</v>
+        <v>0.3508442256111938</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2281594602025943</v>
+        <v>0.2173640992241089</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2756526559809042</v>
+        <v>0.3082299777084325</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3237502343662979</v>
+        <v>0.8621505881227747</v>
       </c>
     </row>
     <row r="23">
@@ -1534,31 +1534,31 @@
         <v>0.2202070666544895</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2687591362061268</v>
+        <v>0.3001852949098409</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3090958812151904</v>
+        <v>0.2648657154541696</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3168578327294616</v>
+        <v>0.3067764406955029</v>
       </c>
       <c r="I23" t="n">
-        <v>0.236066721634264</v>
+        <v>0.2783892953914174</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8664472317888381</v>
+        <v>0.3248967465151147</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3067764406955029</v>
+        <v>0.3528663314700787</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3239496576322986</v>
+        <v>0.405414146842329</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2888657980097096</v>
+        <v>0.2397212679579679</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2369410904864473</v>
+        <v>0.8679691708360295</v>
       </c>
     </row>
     <row r="24">
@@ -1582,31 +1582,31 @@
         <v>-1.471712069531029</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9234419657142934</v>
+        <v>0.8354785171735373</v>
       </c>
       <c r="G24" t="n">
-        <v>1.055491168869401</v>
+        <v>0.9337172020316944</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9012813598807563</v>
+        <v>0.9913100160409892</v>
       </c>
       <c r="I24" t="n">
-        <v>0.893889933414293</v>
+        <v>1.489645264773894</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7037319863153972</v>
+        <v>0.7679697640885021</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9913100160409892</v>
+        <v>1.405838273486609</v>
       </c>
       <c r="L24" t="n">
-        <v>1.047134484113119</v>
+        <v>0.9829086219696229</v>
       </c>
       <c r="M24" t="n">
-        <v>1.261960283805983</v>
+        <v>0.8646218897037269</v>
       </c>
       <c r="N24" t="n">
-        <v>1.051793463941187</v>
+        <v>0.7052299570010334</v>
       </c>
     </row>
     <row r="25">
@@ -1630,31 +1630,31 @@
         <v>-0.3975702024012262</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1727456619205007</v>
+        <v>0.314631890779088</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4337294756264078</v>
+        <v>0.3671918221886344</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3239737477224996</v>
+        <v>0.2618095568138273</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3989231778659814</v>
+        <v>0.5248030286970484</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7950334467200839</v>
+        <v>0.1797737190646329</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2618095568138273</v>
+        <v>0.4037993018297222</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2118601283444303</v>
+        <v>0.3877028253937319</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3199749293544538</v>
+        <v>0.4255724429691736</v>
       </c>
       <c r="N25" t="n">
-        <v>0.356172694652413</v>
+        <v>0.796025473385392</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
@@ -535,7 +535,7 @@
         <v>0.8158269524473714</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7474871919534316</v>
+        <v>0.7832871899279559</v>
       </c>
       <c r="J2" t="n">
         <v>1.052634119590127</v>
@@ -550,7 +550,7 @@
         <v>0.1793823735526282</v>
       </c>
       <c r="N2" t="n">
-        <v>1.19174488844377</v>
+        <v>1.177962427763276</v>
       </c>
     </row>
     <row r="3">
@@ -583,7 +583,7 @@
         <v>0.6252332625047938</v>
       </c>
       <c r="I3" t="n">
-        <v>1.547999074363817</v>
+        <v>1.539959621819876</v>
       </c>
       <c r="J3" t="n">
         <v>1.658752776116569</v>
@@ -598,7 +598,7 @@
         <v>0.5507379707770272</v>
       </c>
       <c r="N3" t="n">
-        <v>1.295481679568396</v>
+        <v>1.283842295398743</v>
       </c>
     </row>
     <row r="4">
@@ -631,7 +631,7 @@
         <v>0.3814740306092502</v>
       </c>
       <c r="I4" t="n">
-        <v>0.975909184646331</v>
+        <v>0.9944570360131537</v>
       </c>
       <c r="J4" t="n">
         <v>1.204785416641957</v>
@@ -646,7 +646,7 @@
         <v>0.2541262744218593</v>
       </c>
       <c r="N4" t="n">
-        <v>1.240040281390922</v>
+        <v>1.233158504608332</v>
       </c>
     </row>
     <row r="5">
@@ -679,7 +679,7 @@
         <v>1.847545942000418</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3470519864326069</v>
+        <v>0.3243737962186763</v>
       </c>
       <c r="J5" t="n">
         <v>0.4025449673880657</v>
@@ -694,7 +694,7 @@
         <v>1.624204504953172</v>
       </c>
       <c r="N5" t="n">
-        <v>1.058161099876447</v>
+        <v>1.050533268808214</v>
       </c>
     </row>
     <row r="6">
@@ -727,7 +727,7 @@
         <v>1.607550714455432</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5222527728341866</v>
+        <v>0.5109532906258769</v>
       </c>
       <c r="J6" t="n">
         <v>0.4554449993668057</v>
@@ -742,7 +742,7 @@
         <v>0.6742657760268511</v>
       </c>
       <c r="N6" t="n">
-        <v>1.046586658523247</v>
+        <v>1.038288204613594</v>
       </c>
     </row>
     <row r="7">
@@ -775,7 +775,7 @@
         <v>0.2235438256374703</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3246357140290516</v>
+        <v>0.2998897651543369</v>
       </c>
       <c r="J7" t="n">
         <v>0.3986377338024754</v>
@@ -790,7 +790,7 @@
         <v>0.184225657456271</v>
       </c>
       <c r="N7" t="n">
-        <v>1.099638667864436</v>
+        <v>1.094407364347728</v>
       </c>
     </row>
     <row r="8">
@@ -823,7 +823,7 @@
         <v>0.2428709598684402</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8871943794329584</v>
+        <v>0.8623813251500541</v>
       </c>
       <c r="J8" t="n">
         <v>0.5963136792778903</v>
@@ -838,7 +838,7 @@
         <v>0.5898021793249799</v>
       </c>
       <c r="N8" t="n">
-        <v>1.039773028100319</v>
+        <v>1.03543469952145</v>
       </c>
     </row>
     <row r="9">
@@ -871,7 +871,7 @@
         <v>0.8530713121210909</v>
       </c>
       <c r="I9" t="n">
-        <v>1.55580164840771</v>
+        <v>1.506355255511725</v>
       </c>
       <c r="J9" t="n">
         <v>0.9600656753207362</v>
@@ -886,7 +886,7 @@
         <v>0.653731136370021</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002511163976704</v>
+        <v>0.9958432720815682</v>
       </c>
     </row>
     <row r="10">
@@ -919,7 +919,7 @@
         <v>0.53835975309544</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3054037869163848</v>
+        <v>0.2796576970884782</v>
       </c>
       <c r="J10" t="n">
         <v>0.3914477096344753</v>
@@ -934,7 +934,7 @@
         <v>0.7595436930053753</v>
       </c>
       <c r="N10" t="n">
-        <v>1.154715860363411</v>
+        <v>1.154371560340464</v>
       </c>
     </row>
     <row r="11">
@@ -967,7 +967,7 @@
         <v>0.4890885719048976</v>
       </c>
       <c r="I11" t="n">
-        <v>2.361199590800857</v>
+        <v>2.308041632221933</v>
       </c>
       <c r="J11" t="n">
         <v>1.514595684089588</v>
@@ -982,7 +982,7 @@
         <v>1.343207018778314</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9772355457876221</v>
+        <v>0.9663359963356604</v>
       </c>
     </row>
     <row r="12">
@@ -1015,7 +1015,7 @@
         <v>3.182120400824687</v>
       </c>
       <c r="I12" t="n">
-        <v>3.863597783485248</v>
+        <v>3.808791409918911</v>
       </c>
       <c r="J12" t="n">
         <v>2.882308576305129</v>
@@ -1030,7 +1030,7 @@
         <v>1.575914032818821</v>
       </c>
       <c r="N12" t="n">
-        <v>1.474763295336273</v>
+        <v>1.414455928493327</v>
       </c>
     </row>
     <row r="13">
@@ -1063,7 +1063,7 @@
         <v>2.030584084822666</v>
       </c>
       <c r="I13" t="n">
-        <v>4.618486632314057</v>
+        <v>4.563680258747716</v>
       </c>
       <c r="J13" t="n">
         <v>3.618470781169586</v>
@@ -1078,7 +1078,7 @@
         <v>1.225247700571236</v>
       </c>
       <c r="N13" t="n">
-        <v>1.906174753729765</v>
+        <v>1.782199216675866</v>
       </c>
     </row>
     <row r="14">
@@ -1111,7 +1111,7 @@
         <v>1.204519599740304</v>
       </c>
       <c r="I14" t="n">
-        <v>1.221712425855758</v>
+        <v>1.181503973411165</v>
       </c>
       <c r="J14" t="n">
         <v>0.5421522313135088</v>
@@ -1126,7 +1126,7 @@
         <v>0.2930731269332834</v>
       </c>
       <c r="N14" t="n">
-        <v>0.711961918205156</v>
+        <v>0.7099136471736143</v>
       </c>
     </row>
     <row r="15">
@@ -1159,7 +1159,7 @@
         <v>0.3380705489779425</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9559678984815889</v>
+        <v>0.9183962002005244</v>
       </c>
       <c r="J15" t="n">
         <v>0.3540881160232546</v>
@@ -1174,7 +1174,7 @@
         <v>0.3099987478288683</v>
       </c>
       <c r="N15" t="n">
-        <v>0.7379913101857172</v>
+        <v>0.7362457997114868</v>
       </c>
     </row>
     <row r="16">
@@ -1207,7 +1207,7 @@
         <v>0.8244278837418509</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2710644823162839</v>
+        <v>0.274194772300126</v>
       </c>
       <c r="J16" t="n">
         <v>0.6078709855481128</v>
@@ -1222,7 +1222,7 @@
         <v>0.5905378715551792</v>
       </c>
       <c r="N16" t="n">
-        <v>0.9152039536424872</v>
+        <v>0.9130761450487295</v>
       </c>
     </row>
     <row r="17">
@@ -1255,7 +1255,7 @@
         <v>0.4930468661545232</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2673069223247122</v>
+        <v>0.2706642960501706</v>
       </c>
       <c r="J17" t="n">
         <v>0.5785197825753251</v>
@@ -1270,7 +1270,7 @@
         <v>0.226154050337088</v>
       </c>
       <c r="N17" t="n">
-        <v>0.911205068968987</v>
+        <v>0.9086830241910144</v>
       </c>
     </row>
     <row r="18">
@@ -1303,7 +1303,7 @@
         <v>0.4992768748766976</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5108078384372974</v>
+        <v>0.4927394096119291</v>
       </c>
       <c r="J18" t="n">
         <v>0.1834398199932399</v>
@@ -1318,7 +1318,7 @@
         <v>0.2469306161443889</v>
       </c>
       <c r="N18" t="n">
-        <v>0.7987872126325608</v>
+        <v>0.7965212918588809</v>
       </c>
     </row>
     <row r="19">
@@ -1351,7 +1351,7 @@
         <v>0.590715656470006</v>
       </c>
       <c r="I19" t="n">
-        <v>1.127253449116638</v>
+        <v>1.087654735259869</v>
       </c>
       <c r="J19" t="n">
         <v>0.4684860701125651</v>
@@ -1366,7 +1366,7 @@
         <v>0.5547888759092583</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7230735777736721</v>
+        <v>0.721813620111174</v>
       </c>
     </row>
     <row r="20">
@@ -1399,7 +1399,7 @@
         <v>0.2401938483972749</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5835075270528773</v>
+        <v>0.5599703205083473</v>
       </c>
       <c r="J20" t="n">
         <v>0.1952746629641808</v>
@@ -1414,7 +1414,7 @@
         <v>0.268514464372243</v>
       </c>
       <c r="N20" t="n">
-        <v>0.7861212864965388</v>
+        <v>0.78492167307603</v>
       </c>
     </row>
     <row r="21">
@@ -1447,7 +1447,7 @@
         <v>0.3435876395138338</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3701533589031113</v>
+        <v>0.3592403072165918</v>
       </c>
       <c r="J21" t="n">
         <v>0.2082085681113187</v>
@@ -1462,7 +1462,7 @@
         <v>0.2616272452617234</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8318061264422902</v>
+        <v>0.8303565284176275</v>
       </c>
     </row>
     <row r="22">
@@ -1495,7 +1495,7 @@
         <v>0.2551805011200191</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2908682109888899</v>
+        <v>0.2842370595323462</v>
       </c>
       <c r="J22" t="n">
         <v>0.2998718948734481</v>
@@ -1510,7 +1510,7 @@
         <v>0.3082299777084325</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8621505881227747</v>
+        <v>0.8605421488380638</v>
       </c>
     </row>
     <row r="23">
@@ -1543,7 +1543,7 @@
         <v>0.3067764406955029</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2783892953914174</v>
+        <v>0.2733077081458004</v>
       </c>
       <c r="J23" t="n">
         <v>0.3248967465151147</v>
@@ -1558,7 +1558,7 @@
         <v>0.2397212679579679</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8679691708360295</v>
+        <v>0.8662700479028254</v>
       </c>
     </row>
     <row r="24">
@@ -1591,7 +1591,7 @@
         <v>0.9913100160409892</v>
       </c>
       <c r="I24" t="n">
-        <v>1.489645264773894</v>
+        <v>1.448329008321893</v>
       </c>
       <c r="J24" t="n">
         <v>0.7679697640885021</v>
@@ -1606,7 +1606,7 @@
         <v>0.8646218897037269</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7052299570010334</v>
+        <v>0.7044970904417205</v>
       </c>
     </row>
     <row r="25">
@@ -1639,7 +1639,7 @@
         <v>0.2618095568138273</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5248030286970484</v>
+        <v>0.5055471945442691</v>
       </c>
       <c r="J25" t="n">
         <v>0.1797737190646329</v>
@@ -1654,7 +1654,7 @@
         <v>0.4255724429691736</v>
       </c>
       <c r="N25" t="n">
-        <v>0.796025473385392</v>
+        <v>0.7953108772398096</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>proces_simulacion</t>
+          <t>Config</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Distribución</t>
+          <t>Dist</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Varianza error</t>
+          <t>Var</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Valor_Observado</t>
+          <t>Block Bootstrapping</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Block Bootstrapping</t>
+          <t>Sieve Bootstrap</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Sieve Bootstrap</t>
+          <t>LSPM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>LSPM</t>
+          <t>LSPMW</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LSPMW</t>
+          <t>AREPD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>AREPD</t>
+          <t>MCPS</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>MCPS</t>
+          <t>AV-MCPS</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>AV-MCPS</t>
+          <t>DeepAR</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>DeepAR</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>EnCQR-LSTM</t>
         </is>
@@ -523,34 +518,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2.354315403920637</v>
+        <v>0.8302605154986817</v>
       </c>
       <c r="F2" t="n">
-        <v>1.226924623394829</v>
+        <v>0.5701484598298238</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2244562714330278</v>
+        <v>0.6154830006432697</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8158269524473714</v>
+        <v>0.6010188200491328</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7832871899279559</v>
+        <v>0.58632834667427</v>
       </c>
       <c r="J2" t="n">
-        <v>1.052634119590127</v>
+        <v>1.209135245155832</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3741561748674948</v>
+        <v>1.684266228803616</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4811661845849273</v>
+        <v>0.5808960493311638</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1793823735526282</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.177962427763276</v>
+        <v>1.398368984411266</v>
       </c>
     </row>
     <row r="3">
@@ -571,34 +563,31 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>3.190652894691369</v>
+        <v>0.9421339880699815</v>
       </c>
       <c r="F3" t="n">
-        <v>1.778796605821918</v>
+        <v>0.6008207339982492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7150802718271987</v>
+        <v>1.720662475744687</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6252332625047938</v>
+        <v>1.4140443721926</v>
       </c>
       <c r="I3" t="n">
-        <v>1.539959621819876</v>
+        <v>1.641200821511794</v>
       </c>
       <c r="J3" t="n">
-        <v>1.658752776116569</v>
+        <v>0.7090579793933162</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5093420019891721</v>
+        <v>0.6049685694849769</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6665048839020538</v>
+        <v>0.5838194819475898</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5507379707770272</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.283842295398743</v>
+        <v>1.26239589110202</v>
       </c>
     </row>
     <row r="4">
@@ -619,34 +608,31 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.608752223239712</v>
+        <v>0.7641699819969016</v>
       </c>
       <c r="F4" t="n">
-        <v>1.386062675709015</v>
+        <v>0.5684726953474861</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2332915509516632</v>
+        <v>0.7434725158980061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3814740306092502</v>
+        <v>1.033924083173391</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9944570360131537</v>
+        <v>1.212516135575344</v>
       </c>
       <c r="J4" t="n">
-        <v>1.204785416641957</v>
+        <v>0.5891487775665455</v>
       </c>
       <c r="K4" t="n">
-        <v>0.927660621597965</v>
+        <v>0.5951847356001096</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7854608458592057</v>
+        <v>0.5668684924877472</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2541262744218593</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.233158504608332</v>
+        <v>1.261790439022001</v>
       </c>
     </row>
     <row r="5">
@@ -667,34 +653,31 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5803256345134316</v>
+        <v>0.7001349100041439</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5349509838935558</v>
+        <v>0.5801201865876834</v>
       </c>
       <c r="G5" t="n">
-        <v>1.463878511254781</v>
+        <v>0.5592357420085849</v>
       </c>
       <c r="H5" t="n">
-        <v>1.847545942000418</v>
+        <v>0.9581844708557178</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3243737962186763</v>
+        <v>1.120519337928296</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4025449673880657</v>
+        <v>0.631872421268074</v>
       </c>
       <c r="K5" t="n">
-        <v>1.517835474385723</v>
+        <v>0.5902739862936782</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01641162707222</v>
+        <v>0.5666291809639427</v>
       </c>
       <c r="M5" t="n">
-        <v>1.624204504953172</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.050533268808214</v>
+        <v>1.265052063648472</v>
       </c>
     </row>
     <row r="6">
@@ -715,34 +698,31 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2350194980738116</v>
+        <v>0.694294991394674</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4872451287413546</v>
+        <v>0.5716273156115166</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2131834752240013</v>
+        <v>0.581667387843658</v>
       </c>
       <c r="H6" t="n">
-        <v>1.607550714455432</v>
+        <v>0.735580343151773</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5109532906258769</v>
+        <v>0.8497178670746374</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4554449993668057</v>
+        <v>0.6122053229718336</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1948922942347683</v>
+        <v>0.6203770068090583</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3432584831700483</v>
+        <v>0.5958858431234384</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6742657760268511</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.038288204613594</v>
+        <v>1.293413932768203</v>
       </c>
     </row>
     <row r="7">
@@ -763,34 +743,31 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6416115236241455</v>
+        <v>0.9980337098506654</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5601735230247373</v>
+        <v>0.5862149665744185</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3935683052506395</v>
+        <v>1.294980686999779</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2235438256374703</v>
+        <v>0.7484228292778472</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2998897651543369</v>
+        <v>0.6757624538003401</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3986377338024754</v>
+        <v>0.797913236001338</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3748093418793953</v>
+        <v>1.435862002060615</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5137295931781937</v>
+        <v>0.6007579253455961</v>
       </c>
       <c r="M7" t="n">
-        <v>0.184225657456271</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1.094407364347728</v>
+        <v>1.449970708376357</v>
       </c>
     </row>
     <row r="8">
@@ -811,34 +788,31 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2064212492625239</v>
+        <v>0.7374500403794718</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5611035176912833</v>
+        <v>0.6040112872230934</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3773642457269758</v>
+        <v>1.69306634651521</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2428709598684402</v>
+        <v>0.9535067215038631</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8623813251500541</v>
+        <v>1.111212433967447</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5963136792778903</v>
+        <v>0.6230663043770373</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1512838697631637</v>
+        <v>0.5810702541662629</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2980657415593938</v>
+        <v>0.5763278065159443</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5898021793249799</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.03543469952145</v>
+        <v>1.260844169126452</v>
       </c>
     </row>
     <row r="9">
@@ -859,34 +833,31 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8970772906205373</v>
+        <v>0.8564915296420436</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8106682412194928</v>
+        <v>0.5556391435194928</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4661031590940097</v>
+        <v>0.5627252797330612</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8530713121210909</v>
+        <v>1.31365232046561</v>
       </c>
       <c r="I9" t="n">
-        <v>1.506355255511725</v>
+        <v>1.51529452768268</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9600656753207362</v>
+        <v>0.5735342617516785</v>
       </c>
       <c r="K9" t="n">
-        <v>1.112222296724392</v>
+        <v>0.6432641734995187</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3058378795468658</v>
+        <v>0.5614781726673669</v>
       </c>
       <c r="M9" t="n">
-        <v>0.653731136370021</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.9958432720815682</v>
+        <v>1.252658236408253</v>
       </c>
     </row>
     <row r="10">
@@ -907,34 +878,31 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7006522434363281</v>
+        <v>0.7065114556136874</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4988686177045323</v>
+        <v>0.6321098104107928</v>
       </c>
       <c r="G10" t="n">
-        <v>1.155972343456121</v>
+        <v>0.7182021712251789</v>
       </c>
       <c r="H10" t="n">
-        <v>0.53835975309544</v>
+        <v>0.8746253959144359</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2796576970884782</v>
+        <v>1.011034051274231</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3914477096344753</v>
+        <v>0.6743437732980865</v>
       </c>
       <c r="K10" t="n">
-        <v>1.150177668785864</v>
+        <v>1.53619128290221</v>
       </c>
       <c r="L10" t="n">
-        <v>1.149310659448664</v>
+        <v>0.6053339363823407</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7595436930053753</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.154371560340464</v>
+        <v>1.271147362012382</v>
       </c>
     </row>
     <row r="11">
@@ -955,34 +923,31 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.704089256946336</v>
+        <v>1.337945280234004</v>
       </c>
       <c r="F11" t="n">
-        <v>1.273663400352505</v>
+        <v>0.5878837798846194</v>
       </c>
       <c r="G11" t="n">
-        <v>1.596601270325984</v>
+        <v>1.323585182868722</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4890885719048976</v>
+        <v>1.908525830852693</v>
       </c>
       <c r="I11" t="n">
-        <v>2.308041632221933</v>
+        <v>2.14088406004404</v>
       </c>
       <c r="J11" t="n">
-        <v>1.514595684089588</v>
+        <v>1.282550014139896</v>
       </c>
       <c r="K11" t="n">
-        <v>1.382924932715614</v>
+        <v>0.7868334672641082</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18127627652726</v>
+        <v>0.5769383694053177</v>
       </c>
       <c r="M11" t="n">
-        <v>1.343207018778314</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.9663359963356604</v>
+        <v>1.295094959575668</v>
       </c>
     </row>
     <row r="12">
@@ -1003,34 +968,31 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.208135864618144</v>
+        <v>0.6704673294315043</v>
       </c>
       <c r="F12" t="n">
-        <v>2.573203820909429</v>
+        <v>0.5837012135520754</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9176939952677238</v>
+        <v>1.299660959898055</v>
       </c>
       <c r="H12" t="n">
-        <v>3.182120400824687</v>
+        <v>0.779131913559705</v>
       </c>
       <c r="I12" t="n">
-        <v>3.808791409918911</v>
+        <v>0.8899388950224162</v>
       </c>
       <c r="J12" t="n">
-        <v>2.882308576305129</v>
+        <v>0.6356407054224767</v>
       </c>
       <c r="K12" t="n">
-        <v>1.64247811206229</v>
+        <v>0.632780246899402</v>
       </c>
       <c r="L12" t="n">
-        <v>1.519823503770773</v>
+        <v>0.621222357670189</v>
       </c>
       <c r="M12" t="n">
-        <v>1.575914032818821</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.414455928493327</v>
+        <v>1.281080105357782</v>
       </c>
     </row>
     <row r="13">
@@ -1051,34 +1013,31 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>-3.963024713446951</v>
+        <v>0.6555951148093688</v>
       </c>
       <c r="F13" t="n">
-        <v>3.040571943127722</v>
+        <v>0.5689322459107138</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9391122800233652</v>
+        <v>0.5567080543239267</v>
       </c>
       <c r="H13" t="n">
-        <v>2.030584084822666</v>
+        <v>0.6285371712945618</v>
       </c>
       <c r="I13" t="n">
-        <v>4.563680258747716</v>
+        <v>0.7043249013662766</v>
       </c>
       <c r="J13" t="n">
-        <v>3.618470781169586</v>
+        <v>0.6247212384416525</v>
       </c>
       <c r="K13" t="n">
-        <v>1.389423689285336</v>
+        <v>0.5892047237395046</v>
       </c>
       <c r="L13" t="n">
-        <v>1.277891755814129</v>
+        <v>0.584455538069996</v>
       </c>
       <c r="M13" t="n">
-        <v>1.225247700571236</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.782199216675866</v>
+        <v>1.305218844637772</v>
       </c>
     </row>
     <row r="14">
@@ -1099,34 +1058,31 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.199360263475659</v>
+        <v>0.5680212950708862</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6487996839784451</v>
+        <v>0.5652833450043651</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4633062315487987</v>
+        <v>0.5710401231320216</v>
       </c>
       <c r="H14" t="n">
-        <v>1.204519599740304</v>
+        <v>0.6061563679200483</v>
       </c>
       <c r="I14" t="n">
-        <v>1.181503973411165</v>
+        <v>0.6001245969432121</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5421522313135088</v>
+        <v>0.7455175628346088</v>
       </c>
       <c r="K14" t="n">
-        <v>1.033618436045697</v>
+        <v>0.5919898165403417</v>
       </c>
       <c r="L14" t="n">
-        <v>1.163085633753081</v>
+        <v>0.5651574663645219</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2930731269332834</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.7099136471736143</v>
+        <v>0.8320518246777392</v>
       </c>
     </row>
     <row r="15">
@@ -1147,34 +1103,31 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.9176057669517854</v>
+        <v>0.875992783500889</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4940918778199035</v>
+        <v>0.5925744158154862</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2448425912944219</v>
+        <v>0.8877029160656006</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3380705489779425</v>
+        <v>1.103866121509306</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9183962002005244</v>
+        <v>1.050261054027521</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3540881160232546</v>
+        <v>0.8100745295542449</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3649411508335579</v>
+        <v>1.002627431354512</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6628382763493815</v>
+        <v>0.5800838093383122</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3099987478288683</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.7362457997114868</v>
+        <v>0.9296437207440696</v>
       </c>
     </row>
     <row r="16">
@@ -1195,34 +1148,31 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6334896759067291</v>
+        <v>0.5583036942403639</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4658038999891121</v>
+        <v>0.5574337545168069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5487206595077961</v>
+        <v>0.705937904167238</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8244278837418509</v>
+        <v>0.599161686507844</v>
       </c>
       <c r="I16" t="n">
-        <v>0.274194772300126</v>
+        <v>0.5959471877453024</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6078709855481128</v>
+        <v>0.5980348690087427</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9617461120447737</v>
+        <v>0.6024202091150952</v>
       </c>
       <c r="L16" t="n">
-        <v>0.392061953583276</v>
+        <v>0.5674232886348218</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5905378715551792</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.9130761450487295</v>
+        <v>0.8234115892635129</v>
       </c>
     </row>
     <row r="17">
@@ -1243,34 +1193,31 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5947475502906933</v>
+        <v>0.7698895614609779</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4743502681473842</v>
+        <v>0.5834856991616761</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2434238848972567</v>
+        <v>0.6837411957009446</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4930468661545232</v>
+        <v>0.9097673115665995</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2706642960501706</v>
+        <v>0.8596341298864951</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5785197825753251</v>
+        <v>0.6846995001093747</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6495970299591682</v>
+        <v>0.6119649904108392</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6146198522687679</v>
+        <v>0.574456705107848</v>
       </c>
       <c r="M17" t="n">
-        <v>0.226154050337088</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.9086830241910144</v>
+        <v>0.8666892049492608</v>
       </c>
     </row>
     <row r="18">
@@ -1291,34 +1238,31 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3770976967562029</v>
+        <v>0.5844641969886624</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3028028632463684</v>
+        <v>0.557692952208632</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2205408325185787</v>
+        <v>0.7862293453891511</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4992768748766976</v>
+        <v>0.5647466833689541</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4927394096119291</v>
+        <v>0.593148336758103</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1834398199932399</v>
+        <v>0.5951106155961495</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1602494064900193</v>
+        <v>0.6815542396200416</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4445817169114058</v>
+        <v>0.5682614174776449</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2469306161443889</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.7965212918588809</v>
+        <v>0.8532866110038613</v>
       </c>
     </row>
     <row r="19">
@@ -1339,34 +1283,31 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.102180713756795</v>
+        <v>1.135862819602279</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5890968561237072</v>
+        <v>0.5873440740797472</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4477649677359817</v>
+        <v>1.003914114579771</v>
       </c>
       <c r="H19" t="n">
-        <v>0.590715656470006</v>
+        <v>1.053156359433132</v>
       </c>
       <c r="I19" t="n">
-        <v>1.087654735259869</v>
+        <v>1.234396452718643</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4684860701125651</v>
+        <v>0.7669532996888468</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7832444312157071</v>
+        <v>0.7663790766495802</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7287586519836391</v>
+        <v>0.6607703233438025</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5547888759092583</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.721813620111174</v>
+        <v>1.161504424599149</v>
       </c>
     </row>
     <row r="20">
@@ -1387,34 +1328,31 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4833954923951277</v>
+        <v>0.5786470439461949</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3373095206161351</v>
+        <v>0.5679888250900044</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2520063687550229</v>
+        <v>1.354605221417615</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2401938483972749</v>
+        <v>0.6495423808652246</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5599703205083473</v>
+        <v>0.624585388231011</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1952746629641808</v>
+        <v>0.8864275608603933</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2164191063252457</v>
+        <v>0.7340269466151524</v>
       </c>
       <c r="L20" t="n">
-        <v>0.5297971593036553</v>
+        <v>0.6481023637948258</v>
       </c>
       <c r="M20" t="n">
-        <v>0.268514464372243</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.78492167307603</v>
+        <v>0.8292558635767765</v>
       </c>
     </row>
     <row r="21">
@@ -1435,34 +1373,31 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.08776312902126937</v>
+        <v>0.6579713632432502</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2876922893353361</v>
+        <v>0.5746238287168732</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2469432477824522</v>
+        <v>0.6975945571235654</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3435876395138338</v>
+        <v>0.6135005959019243</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3592403072165918</v>
+        <v>0.6778500635979854</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2082085681113187</v>
+        <v>0.6691347036245856</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2707113529280156</v>
+        <v>0.7157151239804969</v>
       </c>
       <c r="L21" t="n">
-        <v>0.219769629620479</v>
+        <v>0.5846201446191676</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2616272452617234</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.8303565284176275</v>
+        <v>0.8909507439593609</v>
       </c>
     </row>
     <row r="22">
@@ -1483,34 +1418,31 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1727471565799526</v>
+        <v>0.6399601709646265</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3164848642364121</v>
+        <v>0.5644225862264284</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3315118335905223</v>
+        <v>0.5587800646371598</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2551805011200191</v>
+        <v>0.6052500672640517</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2842370595323462</v>
+        <v>0.6697287701594986</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2998718948734481</v>
+        <v>0.6052037984860295</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3508442256111938</v>
+        <v>0.6481457380999851</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2173640992241089</v>
+        <v>0.5665041426884475</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3082299777084325</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.8605421488380638</v>
+        <v>0.8842317881207914</v>
       </c>
     </row>
     <row r="23">
@@ -1531,34 +1463,31 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2202070666544895</v>
+        <v>0.7833636431385682</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3001852949098409</v>
+        <v>0.5724078507470147</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2648657154541696</v>
+        <v>1.037358730651962</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3067764406955029</v>
+        <v>0.9593846783702812</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2733077081458004</v>
+        <v>0.9072159212282638</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3248967465151147</v>
+        <v>1.239697626299048</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3528663314700787</v>
+        <v>1.124686572161028</v>
       </c>
       <c r="L23" t="n">
-        <v>0.405414146842329</v>
+        <v>0.594937671181363</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2397212679579679</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0.8662700479028254</v>
+        <v>0.8837676183690185</v>
       </c>
     </row>
     <row r="24">
@@ -1579,34 +1508,31 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.471712069531029</v>
+        <v>0.6239388765475302</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8354785171735373</v>
+        <v>0.5825362015112325</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9337172020316944</v>
+        <v>0.9315112342100603</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9913100160409892</v>
+        <v>0.5999528404946788</v>
       </c>
       <c r="I24" t="n">
-        <v>1.448329008321893</v>
+        <v>0.6468242894697617</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7679697640885021</v>
+        <v>0.7062808102267715</v>
       </c>
       <c r="K24" t="n">
-        <v>1.405838273486609</v>
+        <v>0.5949423705926189</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9829086219696229</v>
+        <v>0.5820539449133243</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8646218897037269</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.7044970904417205</v>
+        <v>0.8656543066564143</v>
       </c>
     </row>
     <row r="25">
@@ -1627,34 +1553,31 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3975702024012262</v>
+        <v>0.6026291714254723</v>
       </c>
       <c r="F25" t="n">
-        <v>0.314631890779088</v>
+        <v>0.5783931498863421</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3671918221886344</v>
+        <v>0.771960384807206</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2618095568138273</v>
+        <v>0.6955395109800564</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5055471945442691</v>
+        <v>0.668991725446905</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1797737190646329</v>
+        <v>0.9755333613876803</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4037993018297222</v>
+        <v>0.6892277635285358</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3877028253937319</v>
+        <v>0.5953036887671866</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4255724429691736</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.7953108772398096</v>
+        <v>0.8377748525000902</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
+++ b/codigo_final_organizado/Simulaciones/lineal_estacionario/resultados_2_ESCENARIOS.xlsx
@@ -504,7 +504,7 @@
         <v>0.5808960493311638</v>
       </c>
       <c r="M2">
-        <v>2.409175356501293</v>
+        <v>1.201684507136474</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -545,7 +545,7 @@
         <v>0.5838194819475898</v>
       </c>
       <c r="M3">
-        <v>1.508230454318077</v>
+        <v>0.6656833054784236</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -586,7 +586,7 @@
         <v>0.5668684924877472</v>
       </c>
       <c r="M4">
-        <v>1.295705273365093</v>
+        <v>0.6463047589365307</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -627,7 +627,7 @@
         <v>0.5666291809639427</v>
       </c>
       <c r="M5">
-        <v>1.380265769406724</v>
+        <v>0.6580474635624795</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -668,7 +668,7 @@
         <v>0.5958858431234384</v>
       </c>
       <c r="M6">
-        <v>1.706941787865417</v>
+        <v>0.757009341167266</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -709,7 +709,7 @@
         <v>0.6007579253455961</v>
       </c>
       <c r="M7">
-        <v>2.813850599879194</v>
+        <v>1.498482037695104</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -750,7 +750,7 @@
         <v>0.5763278065159443</v>
       </c>
       <c r="M8">
-        <v>1.490577622165616</v>
+        <v>0.6442398222717846</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -791,7 +791,7 @@
         <v>0.5614781726673669</v>
       </c>
       <c r="M9">
-        <v>1.078414645699932</v>
+        <v>0.6413163752053981</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -832,7 +832,7 @@
         <v>0.6053339363823407</v>
       </c>
       <c r="M10">
-        <v>1.46861513588701</v>
+        <v>0.6768021015152874</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -873,7 +873,7 @@
         <v>0.5769383694053177</v>
       </c>
       <c r="M11">
-        <v>0.8229812826445394</v>
+        <v>0.7967757783005831</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -914,7 +914,7 @@
         <v>0.621222357670189</v>
       </c>
       <c r="M12">
-        <v>1.561759603799363</v>
+        <v>0.7289362570375295</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -955,7 +955,7 @@
         <v>0.584455538069996</v>
       </c>
       <c r="M13">
-        <v>1.937908224207957</v>
+        <v>0.8198293695888442</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -996,7 +996,7 @@
         <v>0.5651574663645219</v>
       </c>
       <c r="M14">
-        <v>0.9374758371193511</v>
+        <v>0.6240174537503569</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1037,7 +1037,7 @@
         <v>0.5800838093383122</v>
       </c>
       <c r="M15">
-        <v>1.021228011335389</v>
+        <v>0.6578207325390386</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1078,7 +1078,7 @@
         <v>0.5674232886348218</v>
       </c>
       <c r="M16">
-        <v>0.9103695257260404</v>
+        <v>0.6226131253722249</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1119,7 +1119,7 @@
         <v>0.574456705107848</v>
       </c>
       <c r="M17">
-        <v>0.9275208373984837</v>
+        <v>0.5887061987231393</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1160,7 +1160,7 @@
         <v>0.5682614174776449</v>
       </c>
       <c r="M18">
-        <v>0.927838961330485</v>
+        <v>0.7513672989687394</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1201,7 +1201,7 @@
         <v>0.6607703233438025</v>
       </c>
       <c r="M19">
-        <v>1.287408900633974</v>
+        <v>1.537609721552292</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1242,7 +1242,7 @@
         <v>0.6481023637948258</v>
       </c>
       <c r="M20">
-        <v>0.9244885727158776</v>
+        <v>0.5762730678032315</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1283,7 +1283,7 @@
         <v>0.5846201446191676</v>
       </c>
       <c r="M21">
-        <v>1.00267324356452</v>
+        <v>0.8781938061620314</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1324,7 +1324,7 @@
         <v>0.5665041426884475</v>
       </c>
       <c r="M22">
-        <v>0.9918953552548075</v>
+        <v>0.87939616941898</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1365,7 +1365,7 @@
         <v>0.594937671181363</v>
       </c>
       <c r="M23">
-        <v>0.9473204744801682</v>
+        <v>0.6088878033734711</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1406,7 +1406,7 @@
         <v>0.5820539449133243</v>
       </c>
       <c r="M24">
-        <v>0.9948319201251629</v>
+        <v>0.8143911596851082</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1447,7 +1447,7 @@
         <v>0.5953036887671866</v>
       </c>
       <c r="M25">
-        <v>0.9333854455052597</v>
+        <v>0.5893681226693055</v>
       </c>
     </row>
   </sheetData>
